--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_32.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3028846153846154</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[(82.290863, 90.185647)]</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4134615384615384</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1426282051282051</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.6, 12.54)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44), (13.56, 16.28)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34), (9.24, 16.26)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07500000000000001</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['G#/C', 'D#', 'G#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.02, 13.98)]</t>
+          <t>[['G', 'D/3', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(122.57, 124.49)]</t>
+          <t>[('0:00:49.560000', '0:00:53.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1821138211382114</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F', 'Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[['A', 'D/5', 'E/4', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:04.875000', '0:00:08.638000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08738738738738738</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1287758346581876</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(250.3, 255.38)]</t>
+          <t>[['G', 'D', 'A'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(200.58, 201.82)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:08.934444', '0:00:16.608639'), ('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:59.205240', '0:01:06.101566'), ('0:02:24.085784', '0:02:29.240614')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1019736842105263</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1542207792207792</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.24, 13.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.74, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(105.0, 108.24)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1304112554112554</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F', 'F:7', 'Bb']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(80.48, 99.36)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.41, 26.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.244279176201373</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'B', 'E', 'A', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(28.208042, 38.529312)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.420489, 9.618952)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
